--- a/Ex4/COMSOL_plot.xlsx
+++ b/Ex4/COMSOL_plot.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chee-lok/Documents/UU/EXPH/P1-2_TP(SK-MTRPH)/Exercises/Ex4/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Transport Phenomena\TransportPhenom\Ex4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FF87C457-B041-2444-B40A-F52E0A18BD76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5A6BF8F-1E9C-4ADE-A8E0-F21A48A93E96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{2BB1548C-9610-154E-A4C6-815BC903491E}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" xr2:uid="{2BB1548C-9610-154E-A4C6-815BC903491E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="COMSOL_variables" localSheetId="0">Sheet1!$A$1:$C$29</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,8 +30,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -41,7 +39,7 @@
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
   <connection id="1" xr16:uid="{59F478F0-87C2-424E-9D0E-3BFC77DDE40B}" name="COMSOL_variables" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr codePage="10000" firstRow="8" sourceFile="/Users/chee-lok/Documents/UU/EXPH/P1-2_TP(SK-MTRPH)/Exercises/Ex4/COMSOL_variables.txt" delimited="0">
+    <textPr firstRow="8" sourceFile="/Users/chee-lok/Documents/UU/EXPH/P1-2_TP(SK-MTRPH)/Exercises/Ex4/COMSOL_variables.txt" delimited="0">
       <textFields count="4">
         <textField/>
         <textField position="21"/>
@@ -53,8 +51,30 @@
 </connections>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>R</t>
   </si>
@@ -64,17 +84,28 @@
   <si>
     <t>c2</t>
   </si>
+  <si>
+    <t>u</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -103,7 +134,7 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -439,18 +470,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E3DFFDE-ED84-6B4D-AFFF-6451DBE80F02}">
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="3" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="12.1328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -460,8 +491,11 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>0</v>
       </c>
@@ -471,8 +505,12 @@
       <c r="C2">
         <v>9.8646702015512903E-3</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2" cm="1">
+        <f t="array" ref="D2:D32">A2:A32/0.005</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>1.8518518518518501E-4</v>
       </c>
@@ -482,8 +520,11 @@
       <c r="C3">
         <v>9.92789231790237E-3</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D3">
+        <v>3.7037037037037E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>3.7037037037037003E-4</v>
       </c>
@@ -493,8 +534,11 @@
       <c r="C4">
         <v>1.01179733902851E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D4">
+        <v>7.4074074074074001E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>5.5555555555555501E-4</v>
       </c>
@@ -504,8 +548,11 @@
       <c r="C5">
         <v>1.04361339193187E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D5">
+        <v>0.11111111111111099</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>7.4074074074074103E-4</v>
       </c>
@@ -515,8 +562,11 @@
       <c r="C6">
         <v>1.08843270862233E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D6">
+        <v>0.1481481481481482</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>9.2592592592592596E-4</v>
       </c>
@@ -526,8 +576,11 @@
       <c r="C7">
         <v>1.14651098303023E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D7">
+        <v>0.18518518518518517</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>1.11111111111111E-3</v>
       </c>
@@ -537,8 +590,11 @@
       <c r="C8">
         <v>1.21814469858947E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D8">
+        <v>0.22222222222222199</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>1.29629629629629E-3</v>
       </c>
@@ -548,8 +604,11 @@
       <c r="C9">
         <v>1.30364319438677E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D9">
+        <v>0.25925925925925797</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>1.4814814814814801E-3</v>
       </c>
@@ -559,8 +618,11 @@
       <c r="C10">
         <v>1.4032900838607001E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D10">
+        <v>0.296296296296296</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>1.6666666666666601E-3</v>
       </c>
@@ -570,8 +632,11 @@
       <c r="C11">
         <v>1.5172909351256101E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D11">
+        <v>0.33333333333333198</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>1.85185185185185E-3</v>
       </c>
@@ -581,8 +646,11 @@
       <c r="C12">
         <v>1.6457031375211598E-2</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D12">
+        <v>0.37037037037036996</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>2.0370370370370299E-3</v>
       </c>
@@ -592,8 +660,11 @@
       <c r="C13">
         <v>1.7883426406811901E-2</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D13">
+        <v>0.407407407407406</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>2.2222222222222201E-3</v>
       </c>
@@ -603,8 +674,11 @@
       <c r="C14">
         <v>1.9446606847889798E-2</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D14">
+        <v>0.44444444444444398</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>2.4074074074074002E-3</v>
       </c>
@@ -614,8 +688,11 @@
       <c r="C15">
         <v>2.1135816486690901E-2</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D15">
+        <v>0.48148148148148001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>2.5925925925925899E-3</v>
       </c>
@@ -625,8 +702,11 @@
       <c r="C16">
         <v>2.2932906056792601E-2</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D16">
+        <v>0.51851851851851793</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>2.7777777777777801E-3</v>
       </c>
@@ -636,8 +716,11 @@
       <c r="C17">
         <v>2.4809559434155699E-2</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D17">
+        <v>0.55555555555555602</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>2.9629629629629602E-3</v>
       </c>
@@ -647,8 +730,11 @@
       <c r="C18">
         <v>2.6723682781097099E-2</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D18">
+        <v>0.592592592592592</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>3.1481481481481499E-3</v>
       </c>
@@ -658,8 +744,11 @@
       <c r="C19">
         <v>2.8614716315886999E-2</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D19">
+        <v>0.62962962962962998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>3.3333333333333301E-3</v>
       </c>
@@ -669,8 +758,11 @@
       <c r="C20">
         <v>3.0397561237842E-2</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D20">
+        <v>0.66666666666666596</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>3.5185185185185202E-3</v>
       </c>
@@ -680,8 +772,11 @@
       <c r="C21">
         <v>3.1954728671986503E-2</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D21">
+        <v>0.70370370370370405</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>3.7037037037036999E-3</v>
       </c>
@@ -691,8 +786,11 @@
       <c r="C22">
         <v>3.3126208222733801E-2</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D22">
+        <v>0.74074074074073992</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>3.8888888888888901E-3</v>
       </c>
@@ -702,8 +800,11 @@
       <c r="C23">
         <v>3.36964143572408E-2</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D23">
+        <v>0.77777777777777801</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>4.0740740740740702E-3</v>
       </c>
@@ -713,8 +814,11 @@
       <c r="C24">
         <v>3.3377391115634703E-2</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D24">
+        <v>0.81481481481481399</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>4.2592592592592604E-3</v>
       </c>
@@ -724,8 +828,11 @@
       <c r="C25">
         <v>3.1787229045545699E-2</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D25">
+        <v>0.85185185185185208</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>4.4444444444444496E-3</v>
       </c>
@@ -735,8 +842,11 @@
       <c r="C26">
         <v>2.84223593806169E-2</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D26">
+        <v>0.88888888888888995</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>4.6296296296296302E-3</v>
       </c>
@@ -746,8 +856,11 @@
       <c r="C27">
         <v>2.26220222571391E-2</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D27">
+        <v>0.92592592592592604</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>4.8148148148148204E-3</v>
       </c>
@@ -757,8 +870,11 @@
       <c r="C28">
         <v>1.35227364482271E-2</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D28">
+        <v>0.96296296296296402</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -768,8 +884,27 @@
       <c r="C29">
         <v>0</v>
       </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D32">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>